--- a/C9200L-24P-4G-E.xlsx
+++ b/C9200L-24P-4G-E.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06E6415-572B-404F-A7A4-2382F2CF7423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD667A2-B321-4F2A-A124-477C39386069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{51B3BCB1-5D1C-4CB5-9267-92741372EB39}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>Nguồn chính mặc định có thể tháo rời</t>
   </si>
   <si>
-    <t>Hỗ trợ nguồn phu có thể tháo rời</t>
-  </si>
-  <si>
     <t>Bảo hành phần cứng</t>
   </si>
   <si>
@@ -233,7 +230,10 @@
   <si>
     <t>IEEE 802.3at PoE+ (lên tới 30W mỗi cổng)
 Công suất POE khả dung với 1 nguồn điện PWR-C5-600WAC duy nhất: 370W
-Công suất POE khả dung với 2 nguồn PWR-C5-600WACg: 740W</t>
+Công suất POE khả dung với 2 nguồn PWR-C5-600WAC: 740W</t>
+  </si>
+  <si>
+    <t>Hỗ trợ nguồn phụ có thể tháo rời</t>
   </si>
 </sst>
 </file>
@@ -419,6 +419,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -430,12 +436,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,7 +754,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,10 +779,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -799,7 +799,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
@@ -911,7 +911,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="8" t="s">
         <v>43</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
@@ -965,7 +965,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -983,49 +983,49 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="117.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="27" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="16" t="s">
         <v>61</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" ht="100.8" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
@@ -1066,7 +1066,7 @@
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>25</v>
@@ -1075,7 +1075,7 @@
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>14</v>
@@ -1084,7 +1084,7 @@
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>26</v>
